--- a/excels_before_arrival/20201209_080000.xlsx
+++ b/excels_before_arrival/20201209_080000.xlsx
@@ -1,34 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juwlian\Documents\Python Scripts\Shared\shared_folders\INFMDI721 Python\projet\excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xmlns:d3p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" d3p1:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fr" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ARRIVAL_HEAD">fr!#REF!</definedName>
-    <definedName name="ARRIVAL_LINE">fr!#REF!</definedName>
-    <definedName name="CLASS_NAME">fr!#REF!</definedName>
-    <definedName name="RACING_HEAD">fr!$B$4:$U$5</definedName>
-    <definedName name="RACING_LINE">fr!#REF!</definedName>
-    <definedName name="REPORT_DATE">fr!$B$3</definedName>
-    <definedName name="REPORT_DEFINITIONS">fr!#REF!</definedName>
+    <definedName name="ARRIVAL_HEAD">'fr'!#REF!</definedName>
+    <definedName name="ARRIVAL_LINE">'fr'!#REF!</definedName>
+    <definedName name="CLASS_NAME">'fr'!#REF!</definedName>
+    <definedName name="RACING_HEAD">'fr'!$B$4:$U$5</definedName>
+    <definedName name="RACING_LINE">'fr'!#REF!</definedName>
+    <definedName name="REPORT_DATE">'fr'!$B$3</definedName>
+    <definedName name="REPORT_DEFINITIONS">'fr'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr fullPrecision="1" calcMode="auto" calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="434">
   <si>
     <t>DTF</t>
   </si>
@@ -43,19 +38,24 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t>DTF</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -63,16 +63,18 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t>Distance To Finish</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> = Distance théorique la plus courte pour rejoindre l'arrivée; </t>
     </r>
@@ -80,16 +82,18 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t>DTL</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -97,35 +101,42 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t>Distance To Leader</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> = différence de distance au but avec le premier au classement</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t>VMG</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -133,16 +144,18 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t>Velocity Made Good</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> = projection du vecteur vitesse sur la route théorique. Ou plus simplement : </t>
     </r>
@@ -150,8 +163,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t>vitesse de rapprochement au but.</t>
     </r>
@@ -166,8 +180,9 @@
         <b/>
         <i/>
         <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
         <color rgb="FFFDEAEC"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Rank</t>
     </r>
@@ -182,8 +197,9 @@
         <b/>
         <i/>
         <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
         <color rgb="FFFDEAEC"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Skipper / crew</t>
     </r>
@@ -198,8 +214,9 @@
         <b/>
         <i/>
         <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
         <color rgb="FFFDEAEC"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Since the the last report</t>
     </r>
@@ -214,8 +231,9 @@
         <b/>
         <i/>
         <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
         <color rgb="FFFDEAEC"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Since 24 hours</t>
     </r>
@@ -230,8 +248,9 @@
         <b/>
         <i/>
         <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
         <color rgb="FFFDEAEC"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Hour FR</t>
     </r>
@@ -246,8 +265,9 @@
         <b/>
         <i/>
         <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
         <color rgb="FFFDEAEC"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Latitude</t>
     </r>
@@ -262,8 +282,9 @@
         <b/>
         <i/>
         <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
         <color rgb="FFFDEAEC"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Longitude</t>
     </r>
@@ -278,8 +299,9 @@
         <b/>
         <i/>
         <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
         <color rgb="FFFDEAEC"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Heading</t>
     </r>
@@ -294,8 +316,9 @@
         <b/>
         <i/>
         <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
         <color rgb="FFFDEAEC"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Speed</t>
     </r>
@@ -310,8 +333,9 @@
         <b/>
         <i/>
         <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
         <color rgb="FFFDEAEC"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>VMG</t>
     </r>
@@ -326,8 +350,9 @@
         <b/>
         <i/>
         <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
         <color rgb="FFFDEAEC"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Distance</t>
     </r>
@@ -346,8 +371,9 @@
         <b/>
         <i/>
         <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
         <color rgb="FFFDEAEC"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Since 30 minutes</t>
     </r>
@@ -360,11 +386,15 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -373,16 +403,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>FRA 79</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Charlie Dalin</t>
     </r>
@@ -390,8 +425,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -400,16 +436,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>APIVIA</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">08:30 FR
 </t>
@@ -465,11 +506,15 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -478,16 +523,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>FRA 59</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Thomas Ruyant</t>
     </r>
@@ -495,8 +545,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -505,6 +556,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>LinkedOut</t>
     </r>
@@ -556,11 +608,15 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -569,16 +625,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>FRA 18</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Louis Burton</t>
     </r>
@@ -586,8 +647,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -596,6 +658,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Bureau Vallée 2</t>
     </r>
@@ -653,11 +716,15 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -666,16 +733,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>FRA 17</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Yannick Bestaven</t>
     </r>
@@ -683,8 +755,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -693,6 +766,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Maître Coq IV</t>
     </r>
@@ -738,11 +812,15 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -751,16 +829,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>FRA 09</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Benjamin Dutreux</t>
     </r>
@@ -768,8 +851,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -778,16 +862,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>OMIA - Water Family</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">08:00 FR
 </t>
@@ -797,8 +886,9 @@
         <b/>
         <i/>
         <sz val="9"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
         <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>-30min</t>
     </r>
@@ -847,11 +937,15 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -860,16 +954,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>FRA 1000</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Damien Seguin</t>
     </r>
@@ -877,8 +976,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -887,6 +987,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Groupe APICIL</t>
     </r>
@@ -929,11 +1030,15 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -942,16 +1047,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>MON 10</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Boris Herrmann</t>
     </r>
@@ -959,8 +1069,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -969,6 +1080,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Seaexplorer - Yacht Club De Monaco</t>
     </r>
@@ -1014,11 +1126,15 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1027,16 +1143,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>FRA 01</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Jean Le Cam</t>
     </r>
@@ -1044,8 +1165,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1054,6 +1176,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Yes we Cam !</t>
     </r>
@@ -1102,11 +1225,15 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1115,16 +1242,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>FRA 27</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Isabelle Joschke</t>
     </r>
@@ -1132,8 +1264,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1142,6 +1275,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>MACSF</t>
     </r>
@@ -1190,11 +1324,15 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1203,16 +1341,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>ITA 34</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Giancarlo Pedote</t>
     </r>
@@ -1220,8 +1363,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1230,6 +1374,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Prysmian Group</t>
     </r>
@@ -1272,11 +1417,15 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1285,16 +1434,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>FRA 53</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Maxime Sorel</t>
     </r>
@@ -1302,8 +1456,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1312,6 +1467,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>V And B Mayenne</t>
     </r>
@@ -1354,11 +1510,15 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1367,16 +1527,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>FRA 49</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Romain Attanasio</t>
     </r>
@@ -1384,8 +1549,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1394,6 +1560,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Pure - Best Western Hotels and Resorts</t>
     </r>
@@ -1433,11 +1600,15 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1446,16 +1617,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>FRA 30</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Clarisse Cremer</t>
     </r>
@@ -1463,8 +1639,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1473,6 +1650,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Banque Populaire X</t>
     </r>
@@ -1509,10 +1687,14 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>FR</t>
     </r>
@@ -1520,8 +1702,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1530,16 +1713,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>FRA 02</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Armel Tripon</t>
     </r>
@@ -1547,8 +1735,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1557,6 +1746,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>L'Occitane en Provence</t>
     </r>
@@ -1599,11 +1789,15 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1612,16 +1806,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>SUI 7</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Alan Roura</t>
     </r>
@@ -1629,8 +1828,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1639,6 +1839,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>La Fabrique</t>
     </r>
@@ -1681,11 +1882,15 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1694,16 +1899,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>FRA 14</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Arnaud Boissieres</t>
     </r>
@@ -1711,8 +1921,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1721,6 +1932,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>La Mie Câline - Artisans Artipôle</t>
     </r>
@@ -1772,11 +1984,15 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1785,16 +2001,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>FRA 92</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Stéphane Le Diraison</t>
     </r>
@@ -1802,8 +2023,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1812,6 +2034,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Time For Oceans</t>
     </r>
@@ -1851,11 +2074,15 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1864,16 +2091,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>FRA 71</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Manuel Cousin</t>
     </r>
@@ -1881,8 +2113,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1891,6 +2124,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Groupe Sétin</t>
     </r>
@@ -1933,11 +2167,15 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1946,16 +2184,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>ESP 33</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Didac Costa</t>
     </r>
@@ -1963,8 +2206,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1973,6 +2217,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>One Planet One Ocean</t>
     </r>
@@ -2018,11 +2263,15 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2031,16 +2280,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>GBR 777</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Pip Hare</t>
     </r>
@@ -2048,8 +2302,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2058,6 +2313,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Medallia</t>
     </r>
@@ -2100,11 +2356,15 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2113,16 +2373,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>FRA 56</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Fabrice Amedeo</t>
     </r>
@@ -2130,8 +2395,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2140,6 +2406,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Newrest - Art et Fenetres</t>
     </r>
@@ -2179,11 +2446,15 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2192,16 +2463,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>FRA 72</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Alexia Barrier</t>
     </r>
@@ -2209,8 +2485,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2219,6 +2496,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>TSE - 4myplanet</t>
     </r>
@@ -2270,11 +2548,15 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2283,16 +2565,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>FRA 50</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Miranda Merron</t>
     </r>
@@ -2300,8 +2587,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2310,6 +2598,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Campagne de France</t>
     </r>
@@ -2343,11 +2632,15 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2356,16 +2649,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>FRA 83</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Clément Giraud</t>
     </r>
@@ -2373,8 +2671,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2383,6 +2682,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Compagnie du lit - Jiliti</t>
     </r>
@@ -2422,11 +2722,15 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2435,16 +2739,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>JPN 11</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Kojiro Shiraishi</t>
     </r>
@@ -2452,8 +2761,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2462,6 +2772,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>DMG MORI Global One</t>
     </r>
@@ -2495,11 +2806,15 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2508,16 +2823,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>FIN 222</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Ari Huusela</t>
     </r>
@@ -2525,8 +2845,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2535,6 +2856,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Stark</t>
     </r>
@@ -2574,10 +2896,14 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>FR</t>
     </r>
@@ -2585,8 +2911,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2595,16 +2922,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>FRA 69</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Sébastien Destremau</t>
     </r>
@@ -2612,8 +2944,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2622,6 +2955,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Merci</t>
     </r>
@@ -2652,11 +2986,15 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2665,16 +3003,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>FRA 8</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Jérémie Beyou</t>
     </r>
@@ -2682,8 +3025,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2692,6 +3036,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Charal</t>
     </r>
@@ -2728,21 +3073,29 @@
   </si>
   <si>
     <r>
+      <t/>
+    </r>
+    <r>
       <rPr>
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>RET</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2751,16 +3104,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>FRA 109</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Samantha Davies</t>
     </r>
@@ -2768,8 +3126,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2778,17 +3137,22 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Initiatives - Coeur</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2797,16 +3161,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>FRA 4</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Sébastien Simon</t>
     </r>
@@ -2814,8 +3183,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2824,17 +3194,22 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>ARKEA PAPREC</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2843,16 +3218,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>GBR 99</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Alex Thomson</t>
     </r>
@@ -2860,8 +3240,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2870,17 +3251,22 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>HUGO BOSS</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2889,16 +3275,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>FRA 85</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Kevin Escoffier</t>
     </r>
@@ -2906,8 +3297,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2916,17 +3308,22 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>PRB</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2935,16 +3332,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>FRA 6</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>Nicolas Troussel</t>
     </r>
@@ -2952,8 +3354,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2962,6 +3365,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <charset val="0"/>
       </rPr>
       <t>CORUM L'Épargne</t>
     </r>
@@ -2970,99 +3374,150 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0\ &quot;Nds&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0\ &quot;°&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0\ &quot;mn&quot;"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <color theme="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <charset val="0"/>
+      <color theme="1"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <color theme="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
+      <charset val="0"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Courier New"/>
+      <charset val="0"/>
+      <color theme="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <color rgb="FFFDEAEC"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <color rgb="FFFDEAEC"/>
-      <name val="Arial"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <color theme="0"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="28"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <color theme="0"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="18"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <color theme="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <charset val="0"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <color indexed="12"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="9"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <color rgb="FFC00000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <charset val="0"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3078,12 +3533,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF002D4F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -3098,7 +3565,7 @@
       <right/>
       <top/>
       <bottom style="hair">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249946592608417"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3107,7 +3574,7 @@
       <right/>
       <top/>
       <bottom style="hair">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249946592608417"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3118,7 +3585,7 @@
       <right/>
       <top/>
       <bottom style="hair">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249946592608417"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3129,7 +3596,7 @@
       </right>
       <top/>
       <bottom style="hair">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249946592608417"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3140,7 +3607,49 @@
       </right>
       <top/>
       <bottom style="hair">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249946592608417"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3269,6 +3778,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -3359,144 +3881,351 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="2">
+    <xf xxid="0" numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf xxid="70" numFmtId="0" fontId="14" fillId="6" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs>
+    <xf xxid="1" numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf xxid="2" numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf xxid="3" numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf xxid="4" numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="5" numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="6" numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="7" numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="8" numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="9" numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="10" numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="11" numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf xxid="12" numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf xxid="13" numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="14" numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="15" numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xxid="16" numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="17" numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="18" numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="19" numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="20" numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="21" numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xxid="22" numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xxid="23" numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xxid="24" numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xxid="25" numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf xxid="26" numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf xxid="27" numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf xxid="28" numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf xxid="29" numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="30" numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="31" numFmtId="49" fontId="1" fillId="4" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="32" numFmtId="49" fontId="1" fillId="4" borderId="13" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="33" numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="34" numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xxid="35" numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xxid="36" numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xxid="37" numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="38" numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xxid="39" numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="40" numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="41" numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="42" numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="43" numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="44" numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="45" numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="46" numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="47" numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="48" numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xxid="49" numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xxid="50" numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="51" numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xxid="52" numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xxid="53" numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="54" numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="55" numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="56" numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="57" numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="58" numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="59" numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="60" numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="61" numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="62" numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xxid="63" numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xxid="64" numFmtId="0" fontId="8" fillId="3" borderId="34" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="65" numFmtId="0" fontId="8" fillId="3" borderId="35" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xxid="66" numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xxid="67" numFmtId="0" fontId="8" fillId="3" borderId="36" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="68" numFmtId="0" fontId="8" fillId="3" borderId="37" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="69" numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xxid="71" numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="72" numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="73" numFmtId="49" fontId="16" fillId="2" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xxid="74" numFmtId="49" fontId="16" fillId="2" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="75" numFmtId="49" fontId="18" fillId="2" borderId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -3517,10 +4246,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Graphique 2">
-          <a:extLst>
+        <xdr:cNvPr id="1" name="Graphique 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E6C0E7-3DD8-41D0-AB00-B999262F7261}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E6C0E7-3DD8-41D0-AB00-B999262F7261}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3529,13 +4258,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
+        <a:blip xmlns:d5p1="http://schemas.openxmlformats.org/officeDocument/2006/relationships" d5p1:embed="rId1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:d5p1="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3548,7 +4277,7 @@
           <a:off x="7572375" y="228600"/>
           <a:ext cx="2423632" cy="1228725"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -3570,10 +4299,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 8">
-          <a:extLst>
+        <xdr:cNvPr id="2" name="Image 8">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E12970D-5D71-4D9E-80A7-B0DEC40F8C84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E12970D-5D71-4D9E-80A7-B0DEC40F8C84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3582,8 +4311,8 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
+        <a:blip xmlns:d5p1="http://schemas.openxmlformats.org/officeDocument/2006/relationships" d5p1:embed="rId3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
@@ -3598,7 +4327,7 @@
           <a:off x="14535150" y="200025"/>
           <a:ext cx="2857500" cy="733425"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -3928,2160 +4657,2165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X44"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" view="normal" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.5" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" zeroHeight="true" defaultRowHeight="12.75" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="1.08984375" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" customWidth="1"/>
-    <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="6" width="12.08984375" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
-    <col min="8" max="17" width="10.08984375" customWidth="1"/>
-    <col min="18" max="18" width="12.54296875" customWidth="1"/>
-    <col min="19" max="19" width="10.08984375" customWidth="1"/>
-    <col min="20" max="21" width="12.54296875" customWidth="1"/>
-    <col min="22" max="22" width="1.08984375" customWidth="1"/>
-    <col min="23" max="24" width="0" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="11.453125" hidden="1" customWidth="1"/>
-    <col min="26" max="16384" width="11.453125" hidden="1"/>
+    <col min="1" max="1" width="1.13671875" style="0" customWidth="1"/>
+    <col min="2" max="2" width="6.99609375" style="0" customWidth="1"/>
+    <col min="3" max="3" width="11.56640625" style="0" customWidth="1"/>
+    <col min="4" max="4" width="55.99609375" style="0" customWidth="1"/>
+    <col min="5" max="6" width="12.13671875" style="0" customWidth="1"/>
+    <col min="7" max="7" width="13.56640625" style="0" customWidth="1"/>
+    <col min="8" max="17" width="10.13671875" style="0" customWidth="1"/>
+    <col min="18" max="18" width="12.56640625" style="0" customWidth="1"/>
+    <col min="19" max="19" width="10.13671875" style="0" customWidth="1"/>
+    <col min="20" max="21" width="12.56640625" style="0" customWidth="1"/>
+    <col min="22" max="22" width="1.13671875" style="0" customWidth="1"/>
+    <col min="23" max="24" width="0" style="0" hidden="1" customWidth="1"/>
+    <col min="25" max="16384" width="11.421875" style="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" s="1" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:21" s="1" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="34"/>
+    <row r="1" s="1" customFormat="1" ht="6.75" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:21" s="1" customFormat="1" ht="119.25" customHeight="1">
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="48"/>
     </row>
-    <row r="3" spans="2:21" s="1" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="28" t="s">
+    <row r="3" spans="2:21" s="1" customFormat="1" ht="27" customHeight="1" thickBot="1">
+      <c r="B3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="30"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="41"/>
     </row>
-    <row r="4" spans="2:21" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+    <row r="4" spans="2:21" s="1" customFormat="1" ht="31.5" customHeight="1">
+      <c r="B4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25" t="s">
+      <c r="E4" s="38"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25" t="s">
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="25" t="s">
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="27" t="s">
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="U4" s="39" t="s">
+      <c r="U4" s="52" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:21" s="1" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="36"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="17" t="s">
+    <row r="5" spans="2:21" s="1" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
+      <c r="B5" s="50"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="R5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="S5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="38"/>
-      <c r="U5" s="40"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="53"/>
     </row>
-    <row r="6" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="2:21">
+      <c r="B6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="R6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="S6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="T6" s="14" t="s">
+      <c r="T6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="U6" s="15" t="s">
+      <c r="U6" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="2:21">
+      <c r="B7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="R7" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="S7" s="13" t="s">
+      <c r="S7" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="T7" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="U7" s="15" t="s">
+      <c r="U7" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="2:21">
+      <c r="B8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="Q8" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R8" s="12" t="s">
+      <c r="R8" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="S8" s="13" t="s">
+      <c r="S8" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="T8" s="14" t="s">
+      <c r="T8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="U8" s="15" t="s">
+      <c r="U8" s="19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="2:21">
+      <c r="B9" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="Q9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="R9" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="S9" s="13" t="s">
+      <c r="S9" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="T9" s="14" t="s">
+      <c r="T9" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="U9" s="15" t="s">
+      <c r="U9" s="19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="2:21">
+      <c r="B10" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="Q10" s="12" t="s">
+      <c r="Q10" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="R10" s="12" t="s">
+      <c r="R10" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="S10" s="13" t="s">
+      <c r="S10" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="T10" s="14" t="s">
+      <c r="T10" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="19" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="2:21">
+      <c r="B11" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="M11" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="N11" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="Q11" s="12" t="s">
+      <c r="Q11" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="R11" s="12" t="s">
+      <c r="R11" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="S11" s="13" t="s">
+      <c r="S11" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="T11" s="14" t="s">
+      <c r="T11" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="U11" s="15" t="s">
+      <c r="U11" s="19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="2:21">
+      <c r="B12" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="O12" s="13" t="s">
+      <c r="O12" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="Q12" s="12" t="s">
+      <c r="Q12" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="R12" s="12" t="s">
+      <c r="R12" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="S12" s="13" t="s">
+      <c r="S12" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="T12" s="14" t="s">
+      <c r="T12" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="U12" s="15" t="s">
+      <c r="U12" s="19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="2:21">
+      <c r="B13" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="O13" s="13" t="s">
+      <c r="O13" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="R13" s="12" t="s">
+      <c r="R13" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="S13" s="13" t="s">
+      <c r="S13" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="T13" s="14" t="s">
+      <c r="T13" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="U13" s="15" t="s">
+      <c r="U13" s="19" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="2:21">
+      <c r="B14" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M14" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="N14" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="O14" s="13" t="s">
+      <c r="O14" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="Q14" s="12" t="s">
+      <c r="Q14" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="R14" s="12" t="s">
+      <c r="R14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="S14" s="13" t="s">
+      <c r="S14" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="T14" s="14" t="s">
+      <c r="T14" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="U14" s="15" t="s">
+      <c r="U14" s="19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+    <row r="15" spans="2:21">
+      <c r="B15" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="M15" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="N15" s="12" t="s">
+      <c r="N15" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="O15" s="13" t="s">
+      <c r="O15" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="P15" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="Q15" s="12" t="s">
+      <c r="Q15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="R15" s="12" t="s">
+      <c r="R15" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="S15" s="13" t="s">
+      <c r="S15" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="T15" s="14" t="s">
+      <c r="T15" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="U15" s="15" t="s">
+      <c r="U15" s="19" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+    <row r="16" spans="2:21">
+      <c r="B16" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="M16" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="N16" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="O16" s="13" t="s">
+      <c r="O16" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="P16" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="Q16" s="12" t="s">
+      <c r="Q16" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="R16" s="12" t="s">
+      <c r="R16" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="S16" s="13" t="s">
+      <c r="S16" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="T16" s="14" t="s">
+      <c r="T16" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="U16" s="15" t="s">
+      <c r="U16" s="19" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="2:21">
+      <c r="B17" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="M17" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="N17" s="12" t="s">
+      <c r="N17" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="O17" s="13" t="s">
+      <c r="O17" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="P17" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="Q17" s="12" t="s">
+      <c r="Q17" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="R17" s="12" t="s">
+      <c r="R17" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="S17" s="13" t="s">
+      <c r="S17" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="T17" s="14" t="s">
+      <c r="T17" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="U17" s="15" t="s">
+      <c r="U17" s="19" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="2:21">
+      <c r="B18" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="71" t="s">
         <v>211</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="M18" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="N18" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="O18" s="13" t="s">
+      <c r="O18" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="Q18" s="12" t="s">
+      <c r="Q18" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R18" s="12" t="s">
+      <c r="R18" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="S18" s="13" t="s">
+      <c r="S18" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="T18" s="14" t="s">
+      <c r="T18" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="U18" s="15" t="s">
+      <c r="U18" s="19" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+    <row r="19" spans="2:21">
+      <c r="B19" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="M19" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="N19" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="O19" s="13" t="s">
+      <c r="O19" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="P19" s="11" t="s">
+      <c r="P19" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="Q19" s="12" t="s">
+      <c r="Q19" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="R19" s="12" t="s">
+      <c r="R19" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="S19" s="13" t="s">
+      <c r="S19" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="T19" s="14" t="s">
+      <c r="T19" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="U19" s="15" t="s">
+      <c r="U19" s="19" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="2:21">
+      <c r="B20" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="69" t="s">
         <v>236</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="71" t="s">
         <v>237</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="M20" s="12" t="s">
+      <c r="M20" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="N20" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O20" s="13" t="s">
+      <c r="O20" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="P20" s="11" t="s">
+      <c r="P20" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="Q20" s="12" t="s">
+      <c r="Q20" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="R20" s="12" t="s">
+      <c r="R20" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="S20" s="13" t="s">
+      <c r="S20" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="T20" s="14" t="s">
+      <c r="T20" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="U20" s="15" t="s">
+      <c r="U20" s="19" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="21" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+    <row r="21" spans="2:21">
+      <c r="B21" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="71" t="s">
         <v>251</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="M21" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="N21" s="12" t="s">
+      <c r="N21" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="O21" s="13" t="s">
+      <c r="O21" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="P21" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="Q21" s="12" t="s">
+      <c r="Q21" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="R21" s="12" t="s">
+      <c r="R21" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="S21" s="13" t="s">
+      <c r="S21" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="T21" s="14" t="s">
+      <c r="T21" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="U21" s="15" t="s">
+      <c r="U21" s="19" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="22" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
+    <row r="22" spans="2:21">
+      <c r="B22" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="L22" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="M22" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="N22" s="12" t="s">
+      <c r="N22" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="O22" s="13" t="s">
+      <c r="O22" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="P22" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="Q22" s="12" t="s">
+      <c r="Q22" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="R22" s="12" t="s">
+      <c r="R22" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="S22" s="13" t="s">
+      <c r="S22" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="T22" s="14" t="s">
+      <c r="T22" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="U22" s="15" t="s">
+      <c r="U22" s="19" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="23" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+    <row r="23" spans="2:21">
+      <c r="B23" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="69" t="s">
         <v>280</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="71" t="s">
         <v>281</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="M23" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="N23" s="12" t="s">
+      <c r="N23" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="O23" s="13" t="s">
+      <c r="O23" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="P23" s="11" t="s">
+      <c r="P23" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="Q23" s="12" t="s">
+      <c r="Q23" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="R23" s="12" t="s">
+      <c r="R23" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="S23" s="13" t="s">
+      <c r="S23" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="T23" s="14" t="s">
+      <c r="T23" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="U23" s="15" t="s">
+      <c r="U23" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="24" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
+    <row r="24" spans="2:21">
+      <c r="B24" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="69" t="s">
         <v>294</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="71" t="s">
         <v>295</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="L24" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="M24" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="N24" s="12" t="s">
+      <c r="N24" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="O24" s="13" t="s">
+      <c r="O24" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="P24" s="11" t="s">
+      <c r="P24" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="Q24" s="12" t="s">
+      <c r="Q24" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="R24" s="12" t="s">
+      <c r="R24" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="S24" s="13" t="s">
+      <c r="S24" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="T24" s="14" t="s">
+      <c r="T24" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="U24" s="15" t="s">
+      <c r="U24" s="19" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="25" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="2:21">
+      <c r="B25" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="69" t="s">
         <v>309</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="71" t="s">
         <v>310</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="L25" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="M25" s="12" t="s">
+      <c r="M25" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="N25" s="12" t="s">
+      <c r="N25" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="O25" s="13" t="s">
+      <c r="O25" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="P25" s="11" t="s">
+      <c r="P25" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Q25" s="12" t="s">
+      <c r="Q25" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="R25" s="12" t="s">
+      <c r="R25" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="S25" s="13" t="s">
+      <c r="S25" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="T25" s="14" t="s">
+      <c r="T25" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="U25" s="15" t="s">
+      <c r="U25" s="19" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+    <row r="26" spans="2:21">
+      <c r="B26" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="69" t="s">
         <v>323</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="71" t="s">
         <v>324</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="L26" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="M26" s="12" t="s">
+      <c r="M26" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="N26" s="12" t="s">
+      <c r="N26" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="O26" s="13" t="s">
+      <c r="O26" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="P26" s="11" t="s">
+      <c r="P26" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="Q26" s="12" t="s">
+      <c r="Q26" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="R26" s="12" t="s">
+      <c r="R26" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="S26" s="13" t="s">
+      <c r="S26" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="T26" s="14" t="s">
+      <c r="T26" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="U26" s="15" t="s">
+      <c r="U26" s="19" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="27" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+    <row r="27" spans="2:21">
+      <c r="B27" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="69" t="s">
         <v>336</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="71" t="s">
         <v>337</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="L27" s="11" t="s">
+      <c r="L27" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="M27" s="12" t="s">
+      <c r="M27" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="N27" s="12" t="s">
+      <c r="N27" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="O27" s="13" t="s">
+      <c r="O27" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="P27" s="11" t="s">
+      <c r="P27" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="Q27" s="12" t="s">
+      <c r="Q27" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="R27" s="12" t="s">
+      <c r="R27" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="S27" s="13" t="s">
+      <c r="S27" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="T27" s="14" t="s">
+      <c r="T27" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="U27" s="15" t="s">
+      <c r="U27" s="19" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
+    <row r="28" spans="2:21">
+      <c r="B28" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="69" t="s">
         <v>353</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="71" t="s">
         <v>354</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="L28" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="M28" s="12" t="s">
+      <c r="M28" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="N28" s="12" t="s">
+      <c r="N28" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="O28" s="13" t="s">
+      <c r="O28" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="P28" s="11" t="s">
+      <c r="P28" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="Q28" s="12" t="s">
+      <c r="Q28" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="R28" s="12" t="s">
+      <c r="R28" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="S28" s="13" t="s">
+      <c r="S28" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="T28" s="14" t="s">
+      <c r="T28" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="U28" s="15" t="s">
+      <c r="U28" s="19" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="29" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
+    <row r="29" spans="2:21">
+      <c r="B29" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="69" t="s">
         <v>364</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="71" t="s">
         <v>365</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="K29" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="L29" s="11" t="s">
+      <c r="L29" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="M29" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="N29" s="12" t="s">
+      <c r="N29" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="O29" s="13" t="s">
+      <c r="O29" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="P29" s="11" t="s">
+      <c r="P29" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="Q29" s="12" t="s">
+      <c r="Q29" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="R29" s="12" t="s">
+      <c r="R29" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="S29" s="13" t="s">
+      <c r="S29" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="T29" s="14" t="s">
+      <c r="T29" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="U29" s="15" t="s">
+      <c r="U29" s="19" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="30" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+    <row r="30" spans="2:21">
+      <c r="B30" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="69" t="s">
         <v>377</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="71" t="s">
         <v>378</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="L30" s="11" t="s">
+      <c r="L30" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="M30" s="12" t="s">
+      <c r="M30" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="N30" s="12" t="s">
+      <c r="N30" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="O30" s="13" t="s">
+      <c r="O30" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="P30" s="11" t="s">
+      <c r="P30" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="Q30" s="12" t="s">
+      <c r="Q30" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="R30" s="12" t="s">
+      <c r="R30" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="S30" s="13" t="s">
+      <c r="S30" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="T30" s="14" t="s">
+      <c r="T30" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="U30" s="15" t="s">
+      <c r="U30" s="19" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
+    <row r="31" spans="2:21">
+      <c r="B31" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="71" t="s">
         <v>389</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="K31" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="L31" s="11" t="s">
+      <c r="L31" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="M31" s="12" t="s">
+      <c r="M31" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="N31" s="12" t="s">
+      <c r="N31" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="O31" s="13" t="s">
+      <c r="O31" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="P31" s="11" t="s">
+      <c r="P31" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="Q31" s="12" t="s">
+      <c r="Q31" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="R31" s="12" t="s">
+      <c r="R31" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="S31" s="13" t="s">
+      <c r="S31" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="T31" s="14" t="s">
+      <c r="T31" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="U31" s="15" t="s">
+      <c r="U31" s="19" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="32" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
+    <row r="32" spans="2:21">
+      <c r="B32" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="72" t="s">
         <v>401</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="71" t="s">
         <v>402</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K32" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="L32" s="11" t="s">
+      <c r="L32" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="M32" s="12" t="s">
+      <c r="M32" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="N32" s="12" t="s">
+      <c r="N32" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="O32" s="13" t="s">
+      <c r="O32" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="P32" s="11" t="s">
+      <c r="P32" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q32" s="12" t="s">
+      <c r="Q32" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="R32" s="12" t="s">
+      <c r="R32" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="S32" s="13" t="s">
+      <c r="S32" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="T32" s="14" t="s">
+      <c r="T32" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="U32" s="15" t="s">
+      <c r="U32" s="19" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="33" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
+    <row r="33" spans="2:21">
+      <c r="B33" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="69" t="s">
         <v>411</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="71" t="s">
         <v>412</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K33" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="L33" s="11" t="s">
+      <c r="L33" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="M33" s="12" t="s">
+      <c r="M33" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="N33" s="12" t="s">
+      <c r="N33" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="O33" s="13" t="s">
+      <c r="O33" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="P33" s="11" t="s">
+      <c r="P33" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="Q33" s="12" t="s">
+      <c r="Q33" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="R33" s="12" t="s">
+      <c r="R33" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="S33" s="13" t="s">
+      <c r="S33" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="T33" s="14" t="s">
+      <c r="T33" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="U33" s="15" t="s">
+      <c r="U33" s="19" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="34" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B34" s="21" t="s">
+    <row r="34" spans="2:21">
+      <c r="B34" s="73" t="s">
         <v>423</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="69" t="s">
         <v>424</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="71" t="s">
         <v>425</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="15"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="19"/>
     </row>
-    <row r="35" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B35" s="21" t="s">
+    <row r="35" spans="2:21">
+      <c r="B35" s="73" t="s">
         <v>423</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="69" t="s">
         <v>426</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="71" t="s">
         <v>427</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="15"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="19"/>
     </row>
-    <row r="36" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B36" s="21" t="s">
+    <row r="36" spans="2:21">
+      <c r="B36" s="73" t="s">
         <v>423</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="69" t="s">
         <v>428</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="71" t="s">
         <v>429</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="15"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="19"/>
     </row>
-    <row r="37" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B37" s="21" t="s">
+    <row r="37" spans="2:21">
+      <c r="B37" s="73" t="s">
         <v>423</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="69" t="s">
         <v>430</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="71" t="s">
         <v>431</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="15"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="19"/>
     </row>
-    <row r="38" spans="2:21" ht="28" x14ac:dyDescent="0.25">
-      <c r="B38" s="21" t="s">
+    <row r="38" spans="2:21">
+      <c r="B38" s="73" t="s">
         <v>423</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="69" t="s">
         <v>432</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="71" t="s">
         <v>433</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="15"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="19"/>
     </row>
-    <row r="39" spans="2:21" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="22" t="s">
+    <row r="39" spans="2:21" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B39" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="23"/>
-      <c r="U39" s="24"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="35"/>
     </row>
-    <row r="40" spans="2:21" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
+    <row r="40" spans="2:21" s="1" customFormat="1" ht="5.25" customHeight="1">
+      <c r="B40" s="3"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
     </row>
-    <row r="41" spans="2:21" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="8" t="s">
+    <row r="41" spans="2:21" s="1" customFormat="1" ht="15">
+      <c r="B41" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="7"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
     </row>
-    <row r="42" spans="2:21" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="8" t="s">
+    <row r="42" spans="2:21" s="1" customFormat="1" ht="15">
+      <c r="B42" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
     </row>
-    <row r="43" spans="2:21" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
+    <row r="43" spans="2:21" s="1" customFormat="1" ht="5.25" customHeight="1">
+      <c r="B43" s="3"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
     </row>
-    <row r="44" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B39:U39"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B3:U3"/>
     <mergeCell ref="B2:U2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="P4:S4"/>
@@ -6090,6 +6824,10 @@
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B39:U39"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B3:U3"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" horizontalDpi="65533" r:id="rId1"/>
